--- a/Fuentes/Reporte_semanal_xx2023.xlsx
+++ b/Fuentes/Reporte_semanal_xx2023.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/YXjoDxGDkQNlA6xuySacHByF7wXfFI5T9JLjwAIZ2o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jP2K3ICwSV8vyumpD+9Q4i4su3TU1DGd6psOcos+/HQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -34,35 +34,15 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>9 al 15 de setiembre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>16 al 22 de setiembre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Variación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+      <t>18 al 24 de noviembre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
       </rPr>
       <t>$/kg</t>
     </r>
@@ -72,7 +52,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="12.0"/>
       </rPr>
       <t>toneladas</t>
     </r>
@@ -82,7 +62,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
-        <sz val="8.0"/>
+        <sz val="12.0"/>
       </rPr>
       <t>participación</t>
     </r>
@@ -94,56 +74,6 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>$/kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>toneladas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>participación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>$/Kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>Toneladas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
       <t>Tomate</t>
     </r>
   </si>
@@ -371,17 +301,6 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
@@ -436,17 +355,6 @@
         <sz val="11.0"/>
       </rPr>
       <t>Kiwi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF333333"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>-</t>
     </r>
   </si>
   <si>
@@ -467,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -481,52 +389,23 @@
     </font>
     <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF7A7A7A"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF006FC0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,24 +414,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEDA"/>
-        <bgColor rgb="FFE1EEDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6FAC46"/>
         <bgColor rgb="FF6FAC46"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBE4F0"/>
-        <bgColor rgb="FFDBE4F0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border/>
     <border>
       <left/>
@@ -576,26 +443,10 @@
     </border>
     <border>
       <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
     </border>
     <border>
@@ -658,12 +509,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -674,113 +525,41 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="10" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="1" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,18 +778,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.71"/>
-    <col customWidth="1" min="2" max="2" width="6.71"/>
-    <col customWidth="1" min="3" max="3" width="14.86"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="7.57"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" min="9" max="9" width="14.86"/>
-    <col customWidth="1" min="10" max="26" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="7.57"/>
+    <col customWidth="1" min="3" max="3" width="14.0"/>
+    <col customWidth="1" min="4" max="4" width="16.86"/>
+    <col customWidth="1" min="5" max="5" width="4.0"/>
+    <col customWidth="1" min="6" max="21" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" ht="18.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,928 +794,445 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>588.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B4" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>488.0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="B5" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>399.0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="B6" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>385.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="B7" s="10">
+        <v>91.0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>327.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="B8" s="10">
+        <v>53.0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>508.0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="B9" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>233.0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
+      <c r="B10" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>151.0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>149.0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>127.0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>132.0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>47.0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>46.0</v>
+      </c>
+      <c r="C17" s="10">
         <v>43.0</v>
       </c>
-      <c r="C3" s="16">
-        <v>1046.0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.156</v>
-      </c>
-      <c r="E3" s="18">
-        <v>44.0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>901.0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0.139</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="21">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="23">
-        <v>53.0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>323.0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.048</v>
-      </c>
-      <c r="E4" s="25">
-        <v>51.0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>360.0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0.055</v>
-      </c>
-      <c r="H4" s="27">
-        <v>-0.04</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="D17" s="11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10">
         <v>45.0</v>
       </c>
-      <c r="C5" s="23">
-        <v>334.0</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="C18" s="10">
+        <v>62.0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1059.0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>512.0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>728.0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>445.0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10">
+        <v>66.0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>187.0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10">
+        <v>129.0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>166.0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10">
         <v>45.0</v>
       </c>
-      <c r="F5" s="25">
-        <v>303.0</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0.047</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="C29" s="10">
+        <v>86.0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>157.0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10">
+        <v>232.0</v>
+      </c>
+      <c r="C31" s="10">
         <v>0.0</v>
       </c>
-      <c r="I5" s="29">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="C6" s="23">
-        <v>297.0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.044</v>
-      </c>
-      <c r="E6" s="25">
-        <v>18.0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>286.0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.044</v>
-      </c>
-      <c r="H6" s="27">
-        <v>-0.09</v>
-      </c>
-      <c r="I6" s="29">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="23">
-        <v>73.0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>714.0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.106</v>
-      </c>
-      <c r="E7" s="25">
-        <v>62.0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>518.0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="30">
-        <v>-0.14</v>
-      </c>
-      <c r="I7" s="31">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="23">
-        <v>132.0</v>
-      </c>
-      <c r="C8" s="23">
-        <v>281.0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.042</v>
-      </c>
-      <c r="E8" s="25">
-        <v>128.0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>257.0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0.039</v>
-      </c>
-      <c r="H8" s="27">
-        <v>-0.03</v>
-      </c>
-      <c r="I8" s="29">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="23">
-        <v>70.0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>207.0</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.031</v>
-      </c>
-      <c r="E9" s="25">
-        <v>60.0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>190.0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0.029</v>
-      </c>
-      <c r="H9" s="30">
-        <v>-0.14</v>
-      </c>
-      <c r="I9" s="29">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="23">
-        <v>40.0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>65.0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="25">
-        <v>51.0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>73.0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0.011</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0.27</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="23">
-        <v>22.0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>171.0</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.025</v>
-      </c>
-      <c r="E11" s="25">
-        <v>21.0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>146.0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0.023</v>
-      </c>
-      <c r="H11" s="27">
-        <v>-0.02</v>
-      </c>
-      <c r="I11" s="31">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="12" ht="18.0" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="23">
-        <v>22.0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>119.0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.018</v>
-      </c>
-      <c r="E12" s="25">
-        <v>22.0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>122.0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0.019</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="D31" s="11">
         <v>0.0</v>
       </c>
-      <c r="I12" s="29">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" ht="18.0" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>108.0</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.016</v>
-      </c>
-      <c r="E13" s="25">
-        <v>12.0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>110.0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0.017</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" ht="18.0" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>197.0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.029</v>
-      </c>
-      <c r="E14" s="25">
-        <v>30.0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>167.0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0.026</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="31">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="23">
-        <v>88.0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>57.0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.009</v>
-      </c>
-      <c r="E15" s="25">
-        <v>70.0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>77.0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0.012</v>
-      </c>
-      <c r="H15" s="30">
-        <v>-0.21</v>
-      </c>
-      <c r="I15" s="28">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>46.0</v>
-      </c>
-      <c r="D16" s="24">
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="10">
+        <v>287.0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="D32" s="11">
         <v>0.007</v>
       </c>
-      <c r="E16" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>49.0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0.008</v>
-      </c>
-      <c r="H16" s="30">
-        <v>-0.15</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" ht="18.0" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="23">
-        <v>24.0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>68.0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="25">
-        <v>24.0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>69.0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0.011</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="23">
-        <v>45.0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>60.0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.009</v>
-      </c>
-      <c r="E18" s="25">
-        <v>45.0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>55.0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0.008</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="29">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.002</v>
-      </c>
-      <c r="E19" s="25">
-        <v>30.0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>13.0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0.002</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="31">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="20" ht="18.0" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="23">
-        <v>23.0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>45.0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.007</v>
-      </c>
-      <c r="E20" s="25">
-        <v>22.0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>39.0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0.006</v>
-      </c>
-      <c r="H20" s="27">
-        <v>-0.04</v>
-      </c>
-      <c r="I20" s="31">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="23">
-        <v>50.0</v>
-      </c>
-      <c r="C21" s="23">
-        <v>430.0</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.064</v>
-      </c>
-      <c r="E21" s="25">
-        <v>49.0</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1002.0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.154</v>
-      </c>
-      <c r="H21" s="27">
-        <v>-0.02</v>
-      </c>
-      <c r="I21" s="28">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="23">
-        <v>74.0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>427.0</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.063</v>
-      </c>
-      <c r="E22" s="25">
-        <v>75.0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>394.0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0.061</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="I22" s="29">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="23">
-        <v>32.0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>414.0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.062</v>
-      </c>
-      <c r="E23" s="25">
-        <v>31.0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>336.0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0.052</v>
-      </c>
-      <c r="H23" s="27">
-        <v>-0.01</v>
-      </c>
-      <c r="I23" s="31">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="C24" s="23">
-        <v>826.0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.123</v>
-      </c>
-      <c r="E24" s="25">
-        <v>34.0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>556.0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0.085</v>
-      </c>
-      <c r="H24" s="32">
-        <v>0.14</v>
-      </c>
-      <c r="I24" s="31">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="25" ht="18.0" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="23">
-        <v>55.0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>34.0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0.005</v>
-      </c>
-      <c r="E25" s="25">
-        <v>58.0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>18.0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0.003</v>
-      </c>
-      <c r="H25" s="27">
-        <v>0.06</v>
-      </c>
-      <c r="I25" s="31">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="26" ht="18.0" customHeight="1">
-      <c r="A26" s="22" t="s">
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="23">
-        <v>165.0</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>170.0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="23">
-        <v>82.0</v>
-      </c>
-      <c r="C27" s="23">
-        <v>104.0</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0.015</v>
-      </c>
-      <c r="E27" s="25">
-        <v>82.0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>89.0</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0.014</v>
-      </c>
-      <c r="H27" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="31">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="28" ht="18.0" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="23">
-        <v>19.0</v>
-      </c>
-      <c r="C28" s="23">
-        <v>147.0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0.022</v>
-      </c>
-      <c r="E28" s="25">
-        <v>19.0</v>
-      </c>
-      <c r="F28" s="25">
-        <v>144.0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0.022</v>
-      </c>
-      <c r="H28" s="27">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="29">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="29" ht="18.0" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="23">
-        <v>122.0</v>
-      </c>
-      <c r="C29" s="23">
-        <v>33.0</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0.005</v>
-      </c>
-      <c r="E29" s="25">
-        <v>113.0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>34.0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0.005</v>
-      </c>
-      <c r="H29" s="27">
-        <v>-0.08</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" ht="18.0" customHeight="1">
-      <c r="A30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="23">
-        <v>106.0</v>
-      </c>
-      <c r="C30" s="23">
-        <v>137.0</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="E30" s="25">
-        <v>120.0</v>
-      </c>
-      <c r="F30" s="25">
-        <v>135.0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0.021</v>
-      </c>
-      <c r="H30" s="32">
-        <v>0.13</v>
-      </c>
-      <c r="I30" s="29">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="23">
-        <v>177.0</v>
-      </c>
-      <c r="C31" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0.002</v>
-      </c>
-      <c r="E31" s="25">
-        <v>193.0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>26.0</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0.004</v>
-      </c>
-      <c r="H31" s="27">
-        <v>0.09</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="23">
-        <v>215.0</v>
-      </c>
-      <c r="C32" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="25">
-        <v>236.0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>35.0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0.005</v>
-      </c>
-      <c r="H32" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="36">
-        <v>6722.0</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39">
-        <v>6501.0</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="40">
-        <v>-0.03</v>
-      </c>
-      <c r="I33" s="38"/>
+      <c r="B33" s="14">
+        <v>7353.0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2908,16 +2200,11 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Fuentes/Reporte_semanal_xx2023.xlsx
+++ b/Fuentes/Reporte_semanal_xx2023.xlsx
@@ -24,16 +24,6 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Papa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
       <t>18 al 24 de noviembre</t>
     </r>
   </si>
@@ -66,6 +56,9 @@
       </rPr>
       <t>participación</t>
     </r>
+  </si>
+  <si>
+    <t>Papa</t>
   </si>
   <si>
     <r>
@@ -375,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -394,6 +387,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
@@ -405,7 +403,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +416,14 @@
         <bgColor rgb="FF6FAC46"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left/>
@@ -448,11 +452,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left/>
@@ -514,7 +513,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -528,37 +527,37 @@
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="1" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="1" vertical="top" wrapText="0"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -786,28 +785,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="6"/>
       <c r="B3" s="7">
         <v>57.0</v>
       </c>
@@ -2201,8 +2201,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A3"/>
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B33:D33"/>
   </mergeCells>
